--- a/data/trans_orig/P2C_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>152380</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>131610</v>
+        <v>133630</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>173949</v>
+        <v>172900</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3601496782417098</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3110594998441553</v>
+        <v>0.3158343665854325</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4111279523422102</v>
+        <v>0.4086471342655137</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>224</v>
@@ -765,19 +765,19 @@
         <v>229665</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>208876</v>
+        <v>206070</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>252761</v>
+        <v>252170</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4667670541409292</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4245161530198676</v>
+        <v>0.4188128567201243</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5137060967910898</v>
+        <v>0.5125051236034299</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>371</v>
@@ -786,19 +786,19 @@
         <v>382046</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>351588</v>
+        <v>351869</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>410892</v>
+        <v>414390</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.417473710324578</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3841913653889847</v>
+        <v>0.3844982080935798</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4489947134901243</v>
+        <v>0.4528175988377039</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>270723</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>249154</v>
+        <v>250203</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>291493</v>
+        <v>289473</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6398503217582902</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5888720476577898</v>
+        <v>0.5913528657344863</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6889405001558447</v>
+        <v>0.6841656334145675</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>266</v>
@@ -836,19 +836,19 @@
         <v>262369</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>239273</v>
+        <v>239864</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>283158</v>
+        <v>285964</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5332329458590708</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4862939032089101</v>
+        <v>0.4874948763965701</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5754838469801323</v>
+        <v>0.5811871432798759</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>537</v>
@@ -857,19 +857,19 @@
         <v>533091</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>504245</v>
+        <v>500747</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>563549</v>
+        <v>563268</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.582526289675422</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5510052865098753</v>
+        <v>0.5471824011622958</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6158086346110152</v>
+        <v>0.6155017919064202</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>221059</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>198654</v>
+        <v>198139</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>246033</v>
+        <v>248302</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.376906704434118</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3387062044165961</v>
+        <v>0.3378281618007177</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4194872172287536</v>
+        <v>0.42335609662384</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>296</v>
@@ -982,19 +982,19 @@
         <v>316600</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>291707</v>
+        <v>291051</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>344635</v>
+        <v>344606</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4869554966879506</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4486675709661391</v>
+        <v>0.4476596283769868</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5300757847131101</v>
+        <v>0.5300311312579687</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>498</v>
@@ -1003,19 +1003,19 @@
         <v>537659</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>499300</v>
+        <v>499650</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>574137</v>
+        <v>572327</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4347632854927011</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4037450083257296</v>
+        <v>0.4040281239744299</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4642599874127273</v>
+        <v>0.462796415543862</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>365450</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>340476</v>
+        <v>338207</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>387855</v>
+        <v>388370</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.623093295565882</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5805127827712465</v>
+        <v>0.5766439033761603</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6612937955834041</v>
+        <v>0.6621718381992826</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>313</v>
@@ -1053,19 +1053,19 @@
         <v>333562</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>305527</v>
+        <v>305556</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>358455</v>
+        <v>359111</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5130445033120493</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4699242152868898</v>
+        <v>0.4699688687420312</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5513324290338609</v>
+        <v>0.5523403716230131</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>664</v>
@@ -1074,19 +1074,19 @@
         <v>699012</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>662534</v>
+        <v>664344</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>737371</v>
+        <v>737021</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.565236714507299</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5357400125872727</v>
+        <v>0.5372035844561378</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5962549916742703</v>
+        <v>0.5959718760255701</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>145656</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>126540</v>
+        <v>126105</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>166114</v>
+        <v>165836</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3610883094585162</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3136975685362318</v>
+        <v>0.3126209508985373</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4118049893002785</v>
+        <v>0.4111151233873341</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>205</v>
@@ -1199,19 +1199,19 @@
         <v>207734</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>187407</v>
+        <v>186747</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>230575</v>
+        <v>228979</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4363207359924323</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3936247247502628</v>
+        <v>0.3922397415590524</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4842936856984938</v>
+        <v>0.4809425675512966</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>342</v>
@@ -1220,19 +1220,19 @@
         <v>353391</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>323422</v>
+        <v>324221</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>382468</v>
+        <v>382736</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4018149600523671</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3677402923242979</v>
+        <v>0.3686486110633964</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4348769505866171</v>
+        <v>0.435181706290372</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>257725</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>237267</v>
+        <v>237545</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>276841</v>
+        <v>277276</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6389116905414838</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5881950106997216</v>
+        <v>0.588884876612666</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6863024314637683</v>
+        <v>0.6873790491014631</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>277</v>
@@ -1270,19 +1270,19 @@
         <v>268371</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>245530</v>
+        <v>247126</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>288698</v>
+        <v>289358</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5636792640075677</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.515706314301506</v>
+        <v>0.5190574324487043</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6063752752497371</v>
+        <v>0.6077602584409477</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>524</v>
@@ -1291,19 +1291,19 @@
         <v>526095</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>497018</v>
+        <v>496750</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>556064</v>
+        <v>555265</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5981850399476329</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.565123049413383</v>
+        <v>0.5648182937096284</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6322597076757022</v>
+        <v>0.6313513889366038</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>186908</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>167911</v>
+        <v>165136</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>209064</v>
+        <v>207414</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3758961980132904</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.337690781263687</v>
+        <v>0.3321099975808504</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4204554972694832</v>
+        <v>0.4171380680722481</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>293</v>
@@ -1416,19 +1416,19 @@
         <v>304699</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>280288</v>
+        <v>276010</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>331596</v>
+        <v>330541</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4460775376152726</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4103399298241785</v>
+        <v>0.4040781211716275</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4854556102778351</v>
+        <v>0.483911370494874</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>486</v>
@@ -1437,19 +1437,19 @@
         <v>491606</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>460955</v>
+        <v>458690</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>526657</v>
+        <v>524991</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4165116579717088</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3905422144043694</v>
+        <v>0.3886238308626594</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4462079541562265</v>
+        <v>0.4447971821997969</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>310324</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>288168</v>
+        <v>289818</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>329321</v>
+        <v>332096</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6241038019867096</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5795445027305169</v>
+        <v>0.5828619319277519</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6623092187363139</v>
+        <v>0.66789000241915</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>361</v>
@@ -1487,19 +1487,19 @@
         <v>378363</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>351466</v>
+        <v>352521</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>402774</v>
+        <v>407052</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5539224623847274</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5145443897221649</v>
+        <v>0.5160886295051261</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5896600701758216</v>
+        <v>0.5959218788283727</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>698</v>
@@ -1508,19 +1508,19 @@
         <v>688688</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>653637</v>
+        <v>655303</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>719339</v>
+        <v>721604</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5834883420282911</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5537920458437732</v>
+        <v>0.5552028178002031</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6094577855956306</v>
+        <v>0.6113761691373406</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>706004</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>661905</v>
+        <v>662881</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>747338</v>
+        <v>745847</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.369591729116386</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3465063125864314</v>
+        <v>0.3470171733451646</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3912302554213937</v>
+        <v>0.390449371776911</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1018</v>
@@ -1633,19 +1633,19 @@
         <v>1058698</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1011484</v>
+        <v>1010044</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1107805</v>
+        <v>1104063</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4600310069908319</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4395154551606719</v>
+        <v>0.438889842420479</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4813692437366623</v>
+        <v>0.4797433182808947</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1697</v>
@@ -1654,19 +1654,19 @@
         <v>1764702</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1700701</v>
+        <v>1703613</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1829427</v>
+        <v>1830217</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.419010984531705</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4038147419973355</v>
+        <v>0.40450618918399</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4343794846732857</v>
+        <v>0.4345669172472289</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1204222</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1162888</v>
+        <v>1164379</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1248321</v>
+        <v>1247345</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.630408270883614</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6087697445786061</v>
+        <v>0.6095506282230889</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6534936874135684</v>
+        <v>0.6529828266548353</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1217</v>
@@ -1704,19 +1704,19 @@
         <v>1242664</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1193557</v>
+        <v>1197299</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1289878</v>
+        <v>1291318</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5399689930091681</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5186307562633378</v>
+        <v>0.5202566817191053</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5604845448393281</v>
+        <v>0.561110157579521</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2423</v>
@@ -1725,19 +1725,19 @@
         <v>2446886</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2382161</v>
+        <v>2381371</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2510887</v>
+        <v>2507975</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.580989015468295</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5656205153267144</v>
+        <v>0.5654330827527713</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5961852580026645</v>
+        <v>0.59549381081601</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>215576</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>193382</v>
+        <v>192763</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>239556</v>
+        <v>239445</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4562341018282117</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4092642240259883</v>
+        <v>0.4079537989288629</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5069839209188922</v>
+        <v>0.5067492958078074</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>283</v>
@@ -2090,19 +2090,19 @@
         <v>303437</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>280037</v>
+        <v>279672</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>326116</v>
+        <v>326010</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5896487667411753</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5441763658252249</v>
+        <v>0.5434674607300534</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.633717856048867</v>
+        <v>0.6335123615387309</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>489</v>
@@ -2111,19 +2111,19 @@
         <v>519013</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>488487</v>
+        <v>486735</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>551981</v>
+        <v>550633</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5257861313604922</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4948617710229782</v>
+        <v>0.4930864666354458</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5591836323866229</v>
+        <v>0.5578182288382978</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>256936</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>232956</v>
+        <v>233067</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>279130</v>
+        <v>279749</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5437658981717883</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4930160790811076</v>
+        <v>0.4932507041921927</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5907357759740117</v>
+        <v>0.592046201071137</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>199</v>
@@ -2161,19 +2161,19 @@
         <v>211170</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>188491</v>
+        <v>188597</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>234570</v>
+        <v>234935</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4103512332588247</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3662821439511335</v>
+        <v>0.366487638461269</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4558236341747754</v>
+        <v>0.4565325392699462</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>439</v>
@@ -2182,19 +2182,19 @@
         <v>468106</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>435138</v>
+        <v>436486</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>498632</v>
+        <v>500384</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4742138686395077</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4408163676133771</v>
+        <v>0.4421817711617022</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5051382289770218</v>
+        <v>0.5069135333645542</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>325474</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>298145</v>
+        <v>297108</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>352986</v>
+        <v>352083</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4919956397065073</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4506836112745808</v>
+        <v>0.449116638270972</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5335823943492128</v>
+        <v>0.532217591304409</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>422</v>
@@ -2307,19 +2307,19 @@
         <v>465821</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>437973</v>
+        <v>438515</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>492653</v>
+        <v>493879</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6237139821734133</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5864273196422507</v>
+        <v>0.5871526152866564</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6596415024752548</v>
+        <v>0.661282065523188</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>725</v>
@@ -2328,19 +2328,19 @@
         <v>791295</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>754763</v>
+        <v>752375</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>828876</v>
+        <v>826754</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5618441256470807</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5359054301928223</v>
+        <v>0.5342095933482456</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.588527752343216</v>
+        <v>0.5870212927663918</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>336065</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>308553</v>
+        <v>309456</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>363394</v>
+        <v>364431</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5080043602934926</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4664176056507872</v>
+        <v>0.467782408695591</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5493163887254192</v>
+        <v>0.550883361729028</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>259</v>
@@ -2378,19 +2378,19 @@
         <v>281029</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>254197</v>
+        <v>252971</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>308877</v>
+        <v>308335</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3762860178265867</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3403584975247452</v>
+        <v>0.3387179344768119</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4135726803577492</v>
+        <v>0.4128473847133436</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>561</v>
@@ -2399,19 +2399,19 @@
         <v>617094</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>579513</v>
+        <v>581635</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>653626</v>
+        <v>656014</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4381558743529193</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4114722476567839</v>
+        <v>0.4129787072336082</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4640945698071777</v>
+        <v>0.4657904066517543</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>236276</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>212839</v>
+        <v>214368</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>257877</v>
+        <v>258940</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5167562386592434</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.465497063112434</v>
+        <v>0.4688406982592887</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5640006652692351</v>
+        <v>0.56632378311775</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>328</v>
@@ -2524,19 +2524,19 @@
         <v>357753</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>333847</v>
+        <v>335443</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>381362</v>
+        <v>380115</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6728215136572228</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6278607442231185</v>
+        <v>0.6308634893768228</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7172210740644129</v>
+        <v>0.7148777101527575</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>546</v>
@@ -2545,19 +2545,19 @@
         <v>594029</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>563683</v>
+        <v>566131</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>627129</v>
+        <v>632590</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6006666690088739</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5699817405382096</v>
+        <v>0.5724561758785001</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6341358271436389</v>
+        <v>0.6396586439175137</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>220953</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>199352</v>
+        <v>198289</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>244390</v>
+        <v>242861</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4832437613407566</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4359993347307649</v>
+        <v>0.43367621688225</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.534502936887566</v>
+        <v>0.5311593017407114</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>159</v>
@@ -2595,19 +2595,19 @@
         <v>173968</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>150359</v>
+        <v>151606</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>197874</v>
+        <v>196278</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3271784863427773</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.282778925935587</v>
+        <v>0.2851222898472424</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3721392557768813</v>
+        <v>0.3691365106231772</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>360</v>
@@ -2616,19 +2616,19 @@
         <v>394921</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>361821</v>
+        <v>356360</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>425267</v>
+        <v>422819</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3993333309911261</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3658641728563611</v>
+        <v>0.3603413560824835</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4300182594617901</v>
+        <v>0.4275438241214993</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>277916</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>254193</v>
+        <v>252114</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>302531</v>
+        <v>299570</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5089601131849517</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4655164912206773</v>
+        <v>0.4617086483682814</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5540401381475402</v>
+        <v>0.5486159199293844</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>406</v>
@@ -2741,19 +2741,19 @@
         <v>423011</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>395501</v>
+        <v>397180</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>449548</v>
+        <v>453275</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5845509516230494</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5465354837694881</v>
+        <v>0.5488546940579041</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6212215259071636</v>
+        <v>0.6263711167144334</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>676</v>
@@ -2762,19 +2762,19 @@
         <v>700927</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>665807</v>
+        <v>663243</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>737610</v>
+        <v>733297</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.552042358452236</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5243819508650557</v>
+        <v>0.5223624888037064</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5809334093578039</v>
+        <v>0.5775368661240678</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>268130</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>243515</v>
+        <v>246476</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>291853</v>
+        <v>293932</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4910398868150483</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4459598618524599</v>
+        <v>0.4513840800706155</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5344835087793232</v>
+        <v>0.5382913516317185</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>287</v>
@@ -2812,19 +2812,19 @@
         <v>300641</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>274104</v>
+        <v>270377</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>328151</v>
+        <v>326472</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4154490483769506</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3787784740928363</v>
+        <v>0.3736288832855666</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4534645162305118</v>
+        <v>0.4511453059420959</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>541</v>
@@ -2833,19 +2833,19 @@
         <v>568771</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>532088</v>
+        <v>536401</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>603891</v>
+        <v>606455</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4479576415477639</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.419066590642196</v>
+        <v>0.4224631338759321</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4756180491349442</v>
+        <v>0.4776375111962936</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1055242</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1005082</v>
+        <v>1007889</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1103311</v>
+        <v>1108924</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4937206355335992</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4702518663310503</v>
+        <v>0.4715655090300852</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5162106913571823</v>
+        <v>0.5188369434892081</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1439</v>
@@ -2958,19 +2958,19 @@
         <v>1550023</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1498584</v>
+        <v>1500361</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1595736</v>
+        <v>1596208</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6158631954970049</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5954253542089712</v>
+        <v>0.5961312239354161</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6340260702513091</v>
+        <v>0.6342134912009012</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2436</v>
@@ -2979,19 +2979,19 @@
         <v>2605265</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2535138</v>
+        <v>2536938</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2670047</v>
+        <v>2671108</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5597717211130014</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.544704203860465</v>
+        <v>0.5450909527022776</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5736908535048751</v>
+        <v>0.5739189378405558</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1082084</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1034015</v>
+        <v>1028402</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1132244</v>
+        <v>1129437</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5062793644664008</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4837893086428177</v>
+        <v>0.4811630565107921</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5297481336689498</v>
+        <v>0.5284344909699149</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>904</v>
@@ -3029,19 +3029,19 @@
         <v>966807</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>921094</v>
+        <v>920622</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1018246</v>
+        <v>1016469</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3841368045029952</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3659739297486909</v>
+        <v>0.3657865087990987</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4045746457910288</v>
+        <v>0.4038687760645839</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1901</v>
@@ -3050,19 +3050,19 @@
         <v>2048891</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1984109</v>
+        <v>1983048</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2119018</v>
+        <v>2117218</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4402282788869986</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.426309146495125</v>
+        <v>0.4260810621594442</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.455295796139535</v>
+        <v>0.4549090472977224</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>180245</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>160127</v>
+        <v>161270</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>200182</v>
+        <v>200977</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4529202805522786</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4023676785103548</v>
+        <v>0.4052418934019283</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5030186836401809</v>
+        <v>0.5050158304510132</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>208</v>
@@ -3415,19 +3415,19 @@
         <v>204748</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>183315</v>
+        <v>183426</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>225614</v>
+        <v>225146</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.45859477036046</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4105900574054928</v>
+        <v>0.4108375293399902</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5053311002785573</v>
+        <v>0.5042827274669643</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>377</v>
@@ -3436,19 +3436,19 @@
         <v>384992</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>356142</v>
+        <v>353968</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>411781</v>
+        <v>412703</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.455920505466013</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4217550667657224</v>
+        <v>0.4191798981137462</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4876445731172695</v>
+        <v>0.4887363346808684</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>217716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>197779</v>
+        <v>196984</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>237834</v>
+        <v>236691</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5470797194477215</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4969813163598191</v>
+        <v>0.4949841695489869</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5976323214896452</v>
+        <v>0.5947581065980716</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>228</v>
@@ -3486,19 +3486,19 @@
         <v>241720</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>220854</v>
+        <v>221322</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>263153</v>
+        <v>263042</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.54140522963954</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4946688997214426</v>
+        <v>0.4957172725330357</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5894099425945072</v>
+        <v>0.5891624706600097</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>453</v>
@@ -3507,19 +3507,19 @@
         <v>459437</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>432648</v>
+        <v>431726</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>488287</v>
+        <v>490461</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5440794945339871</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5123554268827296</v>
+        <v>0.5112636653191317</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5782449332342775</v>
+        <v>0.5808201018862538</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>265854</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>243041</v>
+        <v>240364</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>291592</v>
+        <v>292909</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4565330460677047</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4173569207264979</v>
+        <v>0.4127595859963112</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5007303623979843</v>
+        <v>0.502992175042296</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>384</v>
@@ -3632,19 +3632,19 @@
         <v>395350</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>372236</v>
+        <v>368010</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>426204</v>
+        <v>423597</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5513832802417618</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5191473027050292</v>
+        <v>0.5132531122982241</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5944156355866108</v>
+        <v>0.5907785931395932</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>631</v>
@@ -3653,19 +3653,19 @@
         <v>661204</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>625077</v>
+        <v>626822</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>697030</v>
+        <v>700277</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5088739314472334</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.481069955102295</v>
+        <v>0.4824131570907909</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5364466308148089</v>
+        <v>0.5389452910644033</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>316479</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>290741</v>
+        <v>289424</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>339292</v>
+        <v>341969</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5434669539322953</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4992696376020158</v>
+        <v>0.4970078249577041</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.582643079273502</v>
+        <v>0.5872404140036888</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>286</v>
@@ -3703,19 +3703,19 @@
         <v>321664</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>290810</v>
+        <v>293417</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>344778</v>
+        <v>349004</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4486167197582382</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.405584364413389</v>
+        <v>0.409221406860407</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4808526972949708</v>
+        <v>0.486746887701776</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>590</v>
@@ -3724,19 +3724,19 @@
         <v>638143</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>602317</v>
+        <v>599070</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>674270</v>
+        <v>672525</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4911260685527666</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4635533691851911</v>
+        <v>0.4610547089355968</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.518930044897705</v>
+        <v>0.5175868429092091</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>190611</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>171717</v>
+        <v>170200</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>210949</v>
+        <v>212418</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4580265487986778</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4126266417738842</v>
+        <v>0.408979169216054</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5068978635863328</v>
+        <v>0.5104266606001764</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>272</v>
@@ -3849,19 +3849,19 @@
         <v>280589</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>256290</v>
+        <v>256477</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>302855</v>
+        <v>303570</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5466216603204967</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4992853465119629</v>
+        <v>0.4996502922563154</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5900002652661037</v>
+        <v>0.5913931984049691</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>450</v>
@@ -3870,19 +3870,19 @@
         <v>471200</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>437906</v>
+        <v>440745</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>500774</v>
+        <v>499082</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5069545118505455</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4711351359836901</v>
+        <v>0.4741893563872455</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.538773163553341</v>
+        <v>0.5369531701753036</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>225546</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>205208</v>
+        <v>203739</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>244440</v>
+        <v>245957</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5419734512013222</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4931021364136672</v>
+        <v>0.4895733393998236</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5873733582261158</v>
+        <v>0.5910208307839461</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>204</v>
@@ -3920,19 +3920,19 @@
         <v>232725</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>210459</v>
+        <v>209744</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>257024</v>
+        <v>256837</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4533783396795033</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4099997347338963</v>
+        <v>0.4086068015950309</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5007146534880369</v>
+        <v>0.5003497077436846</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>415</v>
@@ -3941,19 +3941,19 @@
         <v>458271</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>428697</v>
+        <v>430389</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>491565</v>
+        <v>488726</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4930454881494545</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4612268364466589</v>
+        <v>0.4630468298246964</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5288648640163097</v>
+        <v>0.5258106436127545</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>201701</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>180726</v>
+        <v>181327</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>225272</v>
+        <v>222042</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4030176661191378</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3611070008930461</v>
+        <v>0.3623073743759442</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4501152310615714</v>
+        <v>0.443660126629233</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>302</v>
@@ -4066,19 +4066,19 @@
         <v>316287</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>290068</v>
+        <v>290257</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>343848</v>
+        <v>341503</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4805154870721346</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4406824466604912</v>
+        <v>0.4409694714411134</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5223868388695854</v>
+        <v>0.5188252465481886</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>501</v>
@@ -4087,19 +4087,19 @@
         <v>517988</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>484061</v>
+        <v>481692</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>554362</v>
+        <v>551610</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4470418856447367</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4177617512479167</v>
+        <v>0.4157168628350573</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4784343684046605</v>
+        <v>0.4760592414142734</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>298776</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>275205</v>
+        <v>278435</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>319751</v>
+        <v>319150</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5969823338808623</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5498847689384291</v>
+        <v>0.5563398733707666</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.638892999106954</v>
+        <v>0.6376926256240557</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>297</v>
@@ -4137,19 +4137,19 @@
         <v>341937</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>314376</v>
+        <v>316721</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>368156</v>
+        <v>367967</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5194845129278655</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4776131611304146</v>
+        <v>0.4811747534518113</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5593175533395087</v>
+        <v>0.5590305285588864</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>606</v>
@@ -4158,19 +4158,19 @@
         <v>640713</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>604339</v>
+        <v>607091</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>674640</v>
+        <v>677009</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5529581143552633</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5215656315953394</v>
+        <v>0.5239407585857264</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5822382487520833</v>
+        <v>0.5842831371649425</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>838411</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>793742</v>
+        <v>797990</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>878993</v>
+        <v>883175</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4419834977661261</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4184355226542751</v>
+        <v>0.4206750455528657</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4633770096604093</v>
+        <v>0.4655816956750568</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1166</v>
@@ -4283,19 +4283,19 @@
         <v>1196973</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1147150</v>
+        <v>1145017</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1246574</v>
+        <v>1241465</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5126178078255506</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4912804575366539</v>
+        <v>0.4903669355975773</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5338602065694077</v>
+        <v>0.5316721693369082</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1959</v>
@@ -4304,19 +4304,19 @@
         <v>2035384</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1970146</v>
+        <v>1964123</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2100575</v>
+        <v>2098738</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4809566904588984</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4655411691895628</v>
+        <v>0.4641178742951955</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4963613103609708</v>
+        <v>0.4959272555984746</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1058517</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1017935</v>
+        <v>1013753</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1103186</v>
+        <v>1098938</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5580165022338739</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5366229903395906</v>
+        <v>0.5344183043249431</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5815644773457248</v>
+        <v>0.5793249544471337</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1015</v>
@@ -4354,19 +4354,19 @@
         <v>1138047</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1088446</v>
+        <v>1093555</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1187870</v>
+        <v>1190003</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4873821921744494</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4661397934305924</v>
+        <v>0.4683278306630919</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5087195424633463</v>
+        <v>0.5096330644024227</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2064</v>
@@ -4375,19 +4375,19 @@
         <v>2196564</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2131373</v>
+        <v>2133210</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2261802</v>
+        <v>2267825</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5190433095411016</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.503638689639029</v>
+        <v>0.5040727444015256</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5344588308104368</v>
+        <v>0.5358821257048046</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>59739</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45528</v>
+        <v>45109</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76677</v>
+        <v>76676</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08648912927445039</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06591550152355666</v>
+        <v>0.06530826880342241</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1110123370490862</v>
+        <v>0.1110107724376929</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>120</v>
@@ -4740,19 +4740,19 @@
         <v>87139</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>72996</v>
+        <v>73008</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>104878</v>
+        <v>104606</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1186887286433975</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09942459250748918</v>
+        <v>0.09944152177582821</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1428501755816254</v>
+        <v>0.1424804947018649</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>178</v>
@@ -4761,19 +4761,19 @@
         <v>146878</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>124333</v>
+        <v>126251</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>168744</v>
+        <v>171368</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1030800985007352</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0872580140754943</v>
+        <v>0.08860411772018646</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1184261718271495</v>
+        <v>0.1202678413600828</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>630971</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>614033</v>
+        <v>614034</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>645182</v>
+        <v>645601</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9135108707255497</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8889876629509138</v>
+        <v>0.8889892275623072</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9340844984764436</v>
+        <v>0.9346917311965777</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1121</v>
@@ -4811,19 +4811,19 @@
         <v>647041</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>629302</v>
+        <v>629574</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>661184</v>
+        <v>661172</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8813112713566024</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8571498244183745</v>
+        <v>0.8575195052981349</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9005754074925107</v>
+        <v>0.9005584782241718</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1793</v>
@@ -4832,19 +4832,19 @@
         <v>1278011</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1256145</v>
+        <v>1253521</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1300556</v>
+        <v>1298638</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8969199014992649</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8815738281728506</v>
+        <v>0.8797321586399173</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9127419859245056</v>
+        <v>0.9113958822798135</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>123280</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>101939</v>
+        <v>98072</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>149142</v>
+        <v>149773</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1175307719399497</v>
+        <v>0.1175307719399498</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09718506145171937</v>
+        <v>0.09349857430801316</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1421862203171113</v>
+        <v>0.1427879382515276</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>238</v>
@@ -4957,19 +4957,19 @@
         <v>184020</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>163284</v>
+        <v>163424</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>206919</v>
+        <v>207858</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1717451721700301</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1523916787338685</v>
+        <v>0.1525230472156284</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1931165578808494</v>
+        <v>0.1939925345264504</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>347</v>
@@ -4978,19 +4978,19 @@
         <v>307301</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>276272</v>
+        <v>274375</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>341763</v>
+        <v>344695</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1449263439923754</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1302929672321141</v>
+        <v>0.1293982167201607</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1611793428695353</v>
+        <v>0.162561863743608</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>925637</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>899775</v>
+        <v>899144</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>946978</v>
+        <v>950845</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8824692280600502</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8578137796828886</v>
+        <v>0.8572120617484725</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9028149385482805</v>
+        <v>0.9065014256919869</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1279</v>
@@ -5028,19 +5028,19 @@
         <v>887454</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>864555</v>
+        <v>863616</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>908190</v>
+        <v>908050</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8282548278299698</v>
+        <v>0.82825482782997</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8068834421191506</v>
+        <v>0.8060074654735495</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8476083212661316</v>
+        <v>0.8474769527843717</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2134</v>
@@ -5049,19 +5049,19 @@
         <v>1813090</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1778628</v>
+        <v>1775696</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1844119</v>
+        <v>1846016</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8550736560076245</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8388206571304647</v>
+        <v>0.8374381362563919</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.869707032767886</v>
+        <v>0.8706017832798392</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>52912</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38726</v>
+        <v>38066</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72191</v>
+        <v>69083</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06588635147816216</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04822266973321126</v>
+        <v>0.04739986433044192</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08989364249295791</v>
+        <v>0.08602336695268281</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>115</v>
@@ -5174,19 +5174,19 @@
         <v>97935</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>80997</v>
+        <v>81306</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>115667</v>
+        <v>116242</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1205706771209757</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09971808639273524</v>
+        <v>0.1000985700218891</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1424012247126632</v>
+        <v>0.1431095909504229</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>159</v>
@@ -5195,19 +5195,19 @@
         <v>150846</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>129452</v>
+        <v>128986</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>176125</v>
+        <v>177309</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0933839973490269</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08013971151726905</v>
+        <v>0.07985118652231622</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.109033322848145</v>
+        <v>0.1097664604724355</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>750161</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>730882</v>
+        <v>733990</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>764347</v>
+        <v>765007</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9341136485218379</v>
+        <v>0.934113648521838</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9101063575070421</v>
+        <v>0.9139766330473171</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9517773302667887</v>
+        <v>0.9526001356695583</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>932</v>
@@ -5245,19 +5245,19 @@
         <v>714324</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>696592</v>
+        <v>696017</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>731262</v>
+        <v>730953</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8794293228790241</v>
+        <v>0.8794293228790243</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8575987752873369</v>
+        <v>0.8568904090495769</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9002819136072649</v>
+        <v>0.899901429978111</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1564</v>
@@ -5266,19 +5266,19 @@
         <v>1464486</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1439207</v>
+        <v>1438023</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1485880</v>
+        <v>1486346</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9066160026509731</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8909666771518548</v>
+        <v>0.8902335395275643</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9198602884827305</v>
+        <v>0.9201488134776836</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>77309</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61943</v>
+        <v>60992</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>95045</v>
+        <v>95952</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07808501914818533</v>
+        <v>0.07808501914818536</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06256438970372252</v>
+        <v>0.06160467213718994</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09599884517953998</v>
+        <v>0.09691518244513959</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>153</v>
@@ -5391,19 +5391,19 @@
         <v>111544</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>96780</v>
+        <v>96259</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>130332</v>
+        <v>131863</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09967861892831778</v>
+        <v>0.09967861892831777</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08648489865280633</v>
+        <v>0.08601933844570903</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1164676402374136</v>
+        <v>0.1178354645950533</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>233</v>
@@ -5412,19 +5412,19 @@
         <v>188854</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>165696</v>
+        <v>165216</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>215311</v>
+        <v>213651</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08954208160832716</v>
+        <v>0.08954208160832718</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07856232593200897</v>
+        <v>0.07833488597927946</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1020863449315361</v>
+        <v>0.1012993611604989</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>912753</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>895017</v>
+        <v>894110</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>928119</v>
+        <v>929070</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9219149808518147</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9040011548204603</v>
+        <v>0.9030848175548604</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9374356102962778</v>
+        <v>0.93839532786281</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1409</v>
@@ -5462,19 +5462,19 @@
         <v>1007497</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>988709</v>
+        <v>987178</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1022261</v>
+        <v>1022782</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9003213810716822</v>
+        <v>0.9003213810716825</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8835323597625869</v>
+        <v>0.8821645354049468</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9135151013471938</v>
+        <v>0.9139806615542908</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2335</v>
@@ -5483,19 +5483,19 @@
         <v>1920250</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1893793</v>
+        <v>1895453</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1943408</v>
+        <v>1943888</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.910457918391673</v>
+        <v>0.9104579183916728</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8979136550684638</v>
+        <v>0.8987006388395011</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9214376740679906</v>
+        <v>0.9216651140207205</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>313239</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>280672</v>
+        <v>275404</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>351639</v>
+        <v>352544</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08866702436893069</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07944826271950657</v>
+        <v>0.07795703078252395</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0995366328128586</v>
+        <v>0.09979285974013072</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>626</v>
@@ -5608,19 +5608,19 @@
         <v>480638</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>445020</v>
+        <v>442523</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>518579</v>
+        <v>516857</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1286177089042559</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.119086193978789</v>
+        <v>0.1184181477089327</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1387704893502798</v>
+        <v>0.1383096580329775</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>917</v>
@@ -5629,19 +5629,19 @@
         <v>793878</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>742821</v>
+        <v>742346</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>846590</v>
+        <v>847352</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1092034353490972</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1021802560258225</v>
+        <v>0.1021148609654936</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1164543098162483</v>
+        <v>0.1165591015863938</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3219523</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3181123</v>
+        <v>3180218</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3252090</v>
+        <v>3257358</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9113329756310694</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9004633671871414</v>
+        <v>0.9002071402598691</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9205517372804936</v>
+        <v>0.922042969217476</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4741</v>
@@ -5679,19 +5679,19 @@
         <v>3256316</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3218375</v>
+        <v>3220097</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3291934</v>
+        <v>3294431</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8713822910957443</v>
+        <v>0.8713822910957441</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8612295106497201</v>
+        <v>0.8616903419670223</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8809138060212111</v>
+        <v>0.8815818522910672</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7826</v>
@@ -5700,19 +5700,19 @@
         <v>6475838</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6423126</v>
+        <v>6422364</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6526895</v>
+        <v>6527370</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8907965646509027</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.883545690183752</v>
+        <v>0.8834408984136062</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8978197439741779</v>
+        <v>0.8978851390345064</v>
       </c>
     </row>
     <row r="18">
